--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H2">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I2">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J2">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>760.5754462068201</v>
+        <v>54.02513166204445</v>
       </c>
       <c r="R2">
-        <v>6845.179015861381</v>
+        <v>486.2261849584</v>
       </c>
       <c r="S2">
-        <v>0.2022545710869539</v>
+        <v>0.01153245742203583</v>
       </c>
       <c r="T2">
-        <v>0.2022545710869539</v>
+        <v>0.01153245742203583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H3">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I3">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J3">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>759.7172146449232</v>
+        <v>1264.707180744067</v>
       </c>
       <c r="R3">
-        <v>6837.454931804308</v>
+        <v>11382.3646266966</v>
       </c>
       <c r="S3">
-        <v>0.2020263475000495</v>
+        <v>0.2699703131592885</v>
       </c>
       <c r="T3">
-        <v>0.2020263475000494</v>
+        <v>0.2699703131592885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H4">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I4">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J4">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>934.4635241703161</v>
+        <v>1809.894390833622</v>
       </c>
       <c r="R4">
-        <v>8410.171717532843</v>
+        <v>16289.04951750259</v>
       </c>
       <c r="S4">
-        <v>0.2484954256938724</v>
+        <v>0.3863485262977026</v>
       </c>
       <c r="T4">
-        <v>0.2484954256938723</v>
+        <v>0.3863485262977025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H5">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I5">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J5">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>1246.543889131622</v>
+        <v>1481.613409587002</v>
       </c>
       <c r="R5">
-        <v>11218.8950021846</v>
+        <v>13334.52068628301</v>
       </c>
       <c r="S5">
-        <v>0.3314847999560873</v>
+        <v>0.3162721318083102</v>
       </c>
       <c r="T5">
-        <v>0.3314847999560872</v>
+        <v>0.3162721318083102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.314602</v>
       </c>
       <c r="I6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>2.887605987111555</v>
+        <v>0.1232121255111111</v>
       </c>
       <c r="R6">
-        <v>25.988453884004</v>
+        <v>1.1089091296</v>
       </c>
       <c r="S6">
-        <v>0.0007678811001644595</v>
+        <v>2.630143689837057E-05</v>
       </c>
       <c r="T6">
-        <v>0.0007678811001644594</v>
+        <v>2.630143689837056E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.314602</v>
       </c>
       <c r="I7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>2.884347619241777</v>
@@ -883,10 +883,10 @@
         <v>25.959128573176</v>
       </c>
       <c r="S7">
-        <v>0.0007670146249196538</v>
+        <v>0.0006157063404738669</v>
       </c>
       <c r="T7">
-        <v>0.0007670146249196537</v>
+        <v>0.0006157063404738669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.314602</v>
       </c>
       <c r="I8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>3.547790663752</v>
+        <v>4.127725893205334</v>
       </c>
       <c r="R8">
-        <v>31.930115973768</v>
+        <v>37.149533038848</v>
       </c>
       <c r="S8">
-        <v>0.0009434394478313701</v>
+        <v>0.000881123685380463</v>
       </c>
       <c r="T8">
-        <v>0.0009434394478313699</v>
+        <v>0.0008811236853804628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.314602</v>
       </c>
       <c r="I9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>4.732637130748222</v>
+        <v>3.379033641656666</v>
       </c>
       <c r="R9">
-        <v>42.593734176734</v>
+        <v>30.41130277491</v>
       </c>
       <c r="S9">
-        <v>0.001258517478789852</v>
+        <v>0.0007213043337645338</v>
       </c>
       <c r="T9">
-        <v>0.001258517478789852</v>
+        <v>0.0007213043337645338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H10">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>8.674814391825109</v>
+        <v>0.6437894458666668</v>
       </c>
       <c r="R10">
-        <v>78.07332952642598</v>
+        <v>5.794105012799999</v>
       </c>
       <c r="S10">
-        <v>0.00230683342833082</v>
+        <v>0.0001374263078090649</v>
       </c>
       <c r="T10">
-        <v>0.00230683342833082</v>
+        <v>0.0001374263078090648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H11">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>8.665025751471553</v>
+        <v>15.07085887671867</v>
       </c>
       <c r="R11">
-        <v>77.98523176324399</v>
+        <v>135.637729890468</v>
       </c>
       <c r="S11">
-        <v>0.002304230402863582</v>
+        <v>0.003217096061819975</v>
       </c>
       <c r="T11">
-        <v>0.002304230402863581</v>
+        <v>0.003217096061819975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H12">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>10.658111129588</v>
+        <v>21.567571815296</v>
       </c>
       <c r="R12">
-        <v>95.92300016629198</v>
+        <v>194.108146337664</v>
       </c>
       <c r="S12">
-        <v>0.002834237820669448</v>
+        <v>0.004603914807880892</v>
       </c>
       <c r="T12">
-        <v>0.002834237820669447</v>
+        <v>0.00460391480788089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H13">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>14.21757292246344</v>
+        <v>17.655617794945</v>
       </c>
       <c r="R13">
-        <v>127.958156302171</v>
+        <v>158.900560154505</v>
       </c>
       <c r="S13">
-        <v>0.003780780891194312</v>
+        <v>0.00376885079621176</v>
       </c>
       <c r="T13">
-        <v>0.003780780891194312</v>
+        <v>0.00376885079621176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H14">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>0.5995828809164444</v>
+        <v>0.1045698499555555</v>
       </c>
       <c r="R14">
-        <v>5.396245928248</v>
+        <v>0.9411286495999999</v>
       </c>
       <c r="S14">
-        <v>0.0001594429310275941</v>
+        <v>2.232196951938875E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001594429310275941</v>
+        <v>2.232196951938874E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H15">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>0.5989063129902222</v>
+        <v>2.447939247152889</v>
       </c>
       <c r="R15">
-        <v>5.390156816912</v>
+        <v>22.031453224376</v>
       </c>
       <c r="S15">
-        <v>0.0001592630159956118</v>
+        <v>0.0005225485671394441</v>
       </c>
       <c r="T15">
-        <v>0.0001592630159956118</v>
+        <v>0.0005225485671394442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H16">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>0.7366637126240001</v>
+        <v>3.503191552938667</v>
       </c>
       <c r="R16">
-        <v>6.629973413616001</v>
+        <v>31.528723976448</v>
       </c>
       <c r="S16">
-        <v>0.0001958958890602616</v>
+        <v>0.0007478076625194829</v>
       </c>
       <c r="T16">
-        <v>0.0001958958890602616</v>
+        <v>0.0007478076625194828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H17">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>0.9826853863897778</v>
+        <v>2.867778146323333</v>
       </c>
       <c r="R17">
-        <v>8.844168477508001</v>
+        <v>25.81000331691</v>
       </c>
       <c r="S17">
-        <v>0.0002613187321900951</v>
+        <v>0.0006121693432457455</v>
       </c>
       <c r="T17">
-        <v>0.000261318732190095</v>
+        <v>0.0006121693432457456</v>
       </c>
     </row>
   </sheetData>
